--- a/data/trans_dic/P16B04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>78,15; 97,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>84,12; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>76,46; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>74,21; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>83,05; 97,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>85,78; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>93,85; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,6%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>63,0; 88,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>88,22; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>86,16; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>90,2; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>87,24; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>91,61; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>79,44; 93,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>91,95; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,03%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,24%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>33,98; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>50,74; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>48,67; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>49,28; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>60,64; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>60,5; 95,55</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,19%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>87,85; 98,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>74,65; 91,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>86,59; 98,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>85,91; 98,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>88,43; 99,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>85,04; 98,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>89,62; 98,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>84,42; 94,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>90,68; 98,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B04-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,15; 97,48</t>
+          <t>78,15; 97,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,12; 100,0</t>
+          <t>84,35; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76,46; 100,0</t>
+          <t>77,3; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>83,05; 97,13</t>
+          <t>83,71; 97,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85,78; 100,0</t>
+          <t>86,06; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -800,42 +801,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,0; 88,08</t>
+          <t>64,51; 88,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,22; 100,0</t>
+          <t>88,3; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,16; 100,0</t>
+          <t>84,14; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>90,2; 100,0</t>
+          <t>89,89; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,24; 100,0</t>
+          <t>88,43; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,61; 100,0</t>
+          <t>90,23; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>79,44; 93,33</t>
+          <t>78,89; 93,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>91,95; 100,0</t>
+          <t>92,48; 100,0</t>
         </is>
       </c>
     </row>
@@ -910,12 +911,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,98; 100,0</t>
+          <t>50,17; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,74; 100,0</t>
+          <t>55,38; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,12 +926,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,67; 100,0</t>
+          <t>34,27; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,28; 100,0</t>
+          <t>48,11; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -940,12 +941,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>60,64; 100,0</t>
+          <t>59,41; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>60,5; 95,55</t>
+          <t>59,53; 93,79</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,85; 98,61</t>
+          <t>87,98; 98,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,65; 91,91</t>
+          <t>75,8; 91,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,59; 98,47</t>
+          <t>86,99; 98,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>85,91; 98,61</t>
+          <t>86,45; 98,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,43; 99,01</t>
+          <t>88,44; 98,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,04; 98,83</t>
+          <t>86,36; 98,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,62; 98,2</t>
+          <t>90,43; 98,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,42; 94,15</t>
+          <t>84,91; 94,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,68; 98,02</t>
+          <t>90,04; 97,97</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas antibióticas fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29772</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>32073</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9307</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31290</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33562</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22717</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>61062</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>65635</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>32025</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25320; 31586</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>27881; 33056</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7718; 9307</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>26060; 33714</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26291; 35428</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20662; 22717</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>55345; 64232</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>58938; 68485</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30055; 32025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21747</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>42430</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>44611</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>34115</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>57090</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>39061</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>55861</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>99520</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>83672</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19949; 21747</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>35166; 48230</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>40323; 45666</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>29673; 35266</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>53064; 59035</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>35433; 40067</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>51441; 57012</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>89574; 105776</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>79286; 85733</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4516</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6386</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10914</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5810</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5907</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11959</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10326</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12293</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22873</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2879; 4516</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3699; 7373</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7280; 13145</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4275; 5810</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2349; 6854</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7056; 14668</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8563; 10326</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8453; 14227</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16558; 26085</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>56035</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>80888</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>64832</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>71216</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>96559</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>73738</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>127249</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>177448</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>138570</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>51613; 57852</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>71967; 87020</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>59252; 67077</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>64658; 73732</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>89603; 99474</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>66892; 76538</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>120679; 130909</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>166649; 184605</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>131072; 142622</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>